--- a/GMMHMM/grupo4/X_test.xlsx
+++ b/GMMHMM/grupo4/X_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RMS</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>ADIm11</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,50 +459,52 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0.08004541599999999</v>
+        <v>-1.19437130875863</v>
       </c>
       <c r="C2">
-        <v>0.153090252</v>
+        <v>-1.078026913031073</v>
       </c>
       <c r="D2">
-        <v>1.080132873</v>
+        <v>-0.3049963347416466</v>
       </c>
       <c r="E2">
-        <v>0.8147941890000001</v>
+        <v>-0.07212513921239919</v>
       </c>
       <c r="F2">
-        <v>0.434401817</v>
+        <v>-0.06961754444327398</v>
       </c>
       <c r="G2">
-        <v>0.335642876</v>
+        <v>0.6308661979454721</v>
       </c>
       <c r="H2">
-        <v>-0.464408387</v>
+        <v>-0.1521643363436272</v>
       </c>
       <c r="I2">
-        <v>-1.079728083</v>
+        <v>-0.07875494489787163</v>
       </c>
       <c r="J2">
-        <v>-0.347979497</v>
+        <v>-0.2237598292629923</v>
       </c>
       <c r="K2">
-        <v>-0.425076511</v>
+        <v>0.4475188326029005</v>
       </c>
       <c r="L2">
-        <v>-0.5974756379999999</v>
+        <v>0.6411787843847678</v>
       </c>
       <c r="M2">
-        <v>0.09324355199999999</v>
+        <v>0.6353283155454125</v>
       </c>
       <c r="N2">
-        <v>0.022549287</v>
+        <v>0.7388856250757565</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -507,46 +512,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.09215310199999999</v>
+        <v>0.09852779099999999</v>
       </c>
       <c r="C3">
-        <v>0.166345388</v>
+        <v>0.16546092</v>
       </c>
       <c r="D3">
-        <v>1.123550977</v>
+        <v>-0.387068551</v>
       </c>
       <c r="E3">
-        <v>0.722292268</v>
+        <v>-1.193796124</v>
       </c>
       <c r="F3">
-        <v>0.226448629</v>
+        <v>-0.973299646</v>
       </c>
       <c r="G3">
-        <v>0.440220667</v>
+        <v>0.158243594</v>
       </c>
       <c r="H3">
-        <v>-0.369985731</v>
+        <v>-0.246942094</v>
       </c>
       <c r="I3">
-        <v>-0.9319166590000001</v>
+        <v>-0.06937636599999999</v>
       </c>
       <c r="J3">
-        <v>-0.109839934</v>
+        <v>0.302392297</v>
       </c>
       <c r="K3">
-        <v>-0.160054501</v>
+        <v>0.218392693</v>
       </c>
       <c r="L3">
-        <v>-0.307964711</v>
+        <v>-1.0860507</v>
       </c>
       <c r="M3">
-        <v>0.320517371</v>
+        <v>-1.240671693</v>
       </c>
       <c r="N3">
-        <v>0.239072909</v>
+        <v>-1.706251922</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -554,140 +559,140 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>-0.8111281140000001</v>
+        <v>1.111873914411102</v>
       </c>
       <c r="C4">
-        <v>-0.930828965</v>
+        <v>1.135793163195995</v>
       </c>
       <c r="D4">
-        <v>-0.711871047</v>
+        <v>1.424833272127394</v>
       </c>
       <c r="E4">
-        <v>-1.733722485</v>
+        <v>1.169974850453093</v>
       </c>
       <c r="F4">
-        <v>-1.36797488</v>
+        <v>1.07211775792644</v>
       </c>
       <c r="G4">
-        <v>-1.200410171</v>
+        <v>1.216480618538284</v>
       </c>
       <c r="H4">
-        <v>-1.310562454</v>
+        <v>0.09814133965867791</v>
       </c>
       <c r="I4">
-        <v>-1.099713921</v>
+        <v>0.02747385702503116</v>
       </c>
       <c r="J4">
-        <v>-0.9786102390000001</v>
+        <v>0.2485631743415042</v>
       </c>
       <c r="K4">
-        <v>-0.351656679</v>
+        <v>1.059080512462944</v>
       </c>
       <c r="L4">
-        <v>-0.361479619</v>
+        <v>1.042300000049835</v>
       </c>
       <c r="M4">
-        <v>-0.408172901</v>
+        <v>1.05954576174355</v>
       </c>
       <c r="N4">
-        <v>0.024080929</v>
+        <v>0.7737219311159356</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>0.08404805900000001</v>
+        <v>-1.019110682693921</v>
       </c>
       <c r="C5">
-        <v>0.158263319</v>
+        <v>-0.9462027740215625</v>
       </c>
       <c r="D5">
-        <v>1.294199582</v>
+        <v>-1.364025248948709</v>
       </c>
       <c r="E5">
-        <v>1.365673385</v>
+        <v>-1.657049290485308e-17</v>
       </c>
       <c r="F5">
-        <v>1.622505078</v>
+        <v>-1.50205476331992</v>
       </c>
       <c r="G5">
-        <v>1.755307135</v>
+        <v>-0.565980522293658</v>
       </c>
       <c r="H5">
-        <v>1.446623332</v>
+        <v>-0.1574555389130188</v>
       </c>
       <c r="I5">
-        <v>1.6440003</v>
+        <v>-0.07764614940710818</v>
       </c>
       <c r="J5">
-        <v>1.495672263</v>
+        <v>0.02491940988305357</v>
       </c>
       <c r="K5">
-        <v>1.041723686</v>
+        <v>-0.5072628523074543</v>
       </c>
       <c r="L5">
-        <v>0.385273084</v>
+        <v>-0.9345188519821729</v>
       </c>
       <c r="M5">
-        <v>0.241502357</v>
+        <v>-1.146234548203319</v>
       </c>
       <c r="N5">
-        <v>0.190681953</v>
+        <v>-0.4841296379786051</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>-1.172068029</v>
+        <v>-0.8931114177348635</v>
       </c>
       <c r="C6">
-        <v>-1.231346413</v>
+        <v>-0.8828198226551792</v>
       </c>
       <c r="D6">
-        <v>-0.415498974</v>
+        <v>-0.5162736400894987</v>
       </c>
       <c r="E6">
-        <v>-0.528098325</v>
+        <v>-0.8339259671995483</v>
       </c>
       <c r="F6">
-        <v>-0.319651611</v>
+        <v>-0.7874364856480246</v>
       </c>
       <c r="G6">
-        <v>0.629820739</v>
+        <v>-1.2526893198223</v>
       </c>
       <c r="H6">
-        <v>-0.400841936</v>
+        <v>-1.001166414551514</v>
       </c>
       <c r="I6">
-        <v>-0.295586328</v>
+        <v>-0.9404870286432507</v>
       </c>
       <c r="J6">
-        <v>-0.298862914</v>
+        <v>-0.6866717003360699</v>
       </c>
       <c r="K6">
-        <v>0.279929195</v>
+        <v>-1.906229442642518</v>
       </c>
       <c r="L6">
-        <v>0.281425611</v>
+        <v>-0.6763624638504624</v>
       </c>
       <c r="M6">
-        <v>0.266629758</v>
+        <v>-0.7522836163292569</v>
       </c>
       <c r="N6">
-        <v>0.546506038</v>
+        <v>-0.4823731321358291</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -695,46 +700,46 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>-1.089660643</v>
+        <v>-1.026889296893872</v>
       </c>
       <c r="C7">
-        <v>-1.178580011</v>
+        <v>-1.068168151236766</v>
       </c>
       <c r="D7">
-        <v>-0.5226126129999999</v>
+        <v>-1.775428978864936</v>
       </c>
       <c r="E7">
-        <v>-0.920424063</v>
+        <v>0.6479086483204765</v>
       </c>
       <c r="F7">
-        <v>-0.625851896</v>
+        <v>1.360141857411562</v>
       </c>
       <c r="G7">
-        <v>-0.8041183759999999</v>
+        <v>1.769383499330046</v>
       </c>
       <c r="H7">
-        <v>-0.854413878</v>
+        <v>2.081743525537156</v>
       </c>
       <c r="I7">
-        <v>-0.8010182579999999</v>
+        <v>1.485068561234677</v>
       </c>
       <c r="J7">
-        <v>-0.711676256</v>
+        <v>1.473653895776652</v>
       </c>
       <c r="K7">
-        <v>-1.711835175</v>
+        <v>1.576054995210785</v>
       </c>
       <c r="L7">
-        <v>-0.886450877</v>
+        <v>1.316609464567598</v>
       </c>
       <c r="M7">
-        <v>-0.944805067</v>
+        <v>1.121050447312544</v>
       </c>
       <c r="N7">
-        <v>-0.312706292</v>
+        <v>0.8834742640828863</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -742,46 +747,46 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-1.075959248</v>
+        <v>1.100174680673551</v>
       </c>
       <c r="C8">
-        <v>-1.148089415</v>
+        <v>1.124891968315829</v>
       </c>
       <c r="D8">
-        <v>-1.29033459</v>
+        <v>1.483209165833856</v>
       </c>
       <c r="E8">
-        <v>-0.4561949702537312</v>
+        <v>0.7787091994039962</v>
       </c>
       <c r="F8">
-        <v>-1.658406479</v>
+        <v>0.08101460793328968</v>
       </c>
       <c r="G8">
-        <v>-0.478718335</v>
+        <v>0.488666944720673</v>
       </c>
       <c r="H8">
-        <v>-0.405491016</v>
+        <v>-0.1966393176758857</v>
       </c>
       <c r="I8">
-        <v>-0.294614211</v>
+        <v>-0.4678460142387856</v>
       </c>
       <c r="J8">
-        <v>-0.097444049</v>
+        <v>-0.3410258939533991</v>
       </c>
       <c r="K8">
-        <v>-0.581121552</v>
+        <v>0.2207665569780954</v>
       </c>
       <c r="L8">
-        <v>-1.390411525</v>
+        <v>0.5615617936015691</v>
       </c>
       <c r="M8">
-        <v>-1.808725387</v>
+        <v>0.8131312290919488</v>
       </c>
       <c r="N8">
-        <v>-1.013263883</v>
+        <v>0.7310462283360522</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -789,234 +794,234 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>-0.9229714659999999</v>
+        <v>1.10031152465143</v>
       </c>
       <c r="C9">
-        <v>-0.993167921</v>
+        <v>1.125797866822876</v>
       </c>
       <c r="D9">
-        <v>-1.10187603</v>
+        <v>1.545843024994026</v>
       </c>
       <c r="E9">
-        <v>-0.932714037</v>
+        <v>1.504082509945178</v>
       </c>
       <c r="F9">
-        <v>-0.973339356</v>
+        <v>1.122528232643397</v>
       </c>
       <c r="G9">
-        <v>-1.205753535</v>
+        <v>1.548915202151974</v>
       </c>
       <c r="H9">
-        <v>-0.9152577240000001</v>
+        <v>0.8025128693472742</v>
       </c>
       <c r="I9">
-        <v>-0.6697975900000001</v>
+        <v>0.07323898237231517</v>
       </c>
       <c r="J9">
-        <v>-1.050948601</v>
+        <v>0.9544067233236763</v>
       </c>
       <c r="K9">
-        <v>-1.003364957</v>
+        <v>1.029574337668288</v>
       </c>
       <c r="L9">
-        <v>-0.567307032</v>
+        <v>0.863701457389054</v>
       </c>
       <c r="M9">
-        <v>-0.50628744</v>
+        <v>0.8929892270118991</v>
       </c>
       <c r="N9">
-        <v>-0.377202144</v>
+        <v>0.832755712623328</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B10">
-        <v>-1.006864232</v>
+        <v>-0.8979174274012933</v>
       </c>
       <c r="C10">
-        <v>-1.108058247</v>
+        <v>-0.7779779782818683</v>
       </c>
       <c r="D10">
-        <v>-0.590029536</v>
+        <v>0.05593619008166591</v>
       </c>
       <c r="E10">
-        <v>-1.287556619</v>
+        <v>-0.5809178915489024</v>
       </c>
       <c r="F10">
-        <v>-0.9905247140000001</v>
+        <v>-0.7821589652917296</v>
       </c>
       <c r="G10">
-        <v>-1.114759293</v>
+        <v>-1.371756796563258</v>
       </c>
       <c r="H10">
-        <v>-1.146811974</v>
+        <v>-1.769145320785033</v>
       </c>
       <c r="I10">
-        <v>-1.051094819</v>
+        <v>-0.3106269582083702</v>
       </c>
       <c r="J10">
-        <v>-0.67380046</v>
+        <v>-0.4136910413304782</v>
       </c>
       <c r="K10">
-        <v>-1.842751563</v>
+        <v>-0.160953610855165</v>
       </c>
       <c r="L10">
-        <v>-1.116504002</v>
+        <v>-0.05426830036290738</v>
       </c>
       <c r="M10">
-        <v>-1.349809168</v>
+        <v>0.1435273820550567</v>
       </c>
       <c r="N10">
-        <v>-1.011023727</v>
+        <v>0.218825131599535</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>0.077301988</v>
+        <v>-0.4486676309063777</v>
       </c>
       <c r="C11">
-        <v>0.139989845</v>
+        <v>-0.6981368151440918</v>
       </c>
       <c r="D11">
-        <v>-0.040984623</v>
+        <v>-1.893864632384399</v>
       </c>
       <c r="E11">
-        <v>-0.678476764</v>
+        <v>-0.8138407903746437</v>
       </c>
       <c r="F11">
-        <v>-0.679741467</v>
+        <v>-1.131585928047311</v>
       </c>
       <c r="G11">
-        <v>0.24307821</v>
+        <v>-1.521676146207622</v>
       </c>
       <c r="H11">
-        <v>-0.736513768</v>
+        <v>-0.421539501489349</v>
       </c>
       <c r="I11">
-        <v>-0.277028587</v>
+        <v>-0.9139190013134963</v>
       </c>
       <c r="J11">
-        <v>-0.3685610520000001</v>
+        <v>0.078154540762746</v>
       </c>
       <c r="K11">
-        <v>-0.961068138</v>
+        <v>-0.03860679876158272</v>
       </c>
       <c r="L11">
-        <v>-1.967072923</v>
+        <v>-0.2122522625214683</v>
       </c>
       <c r="M11">
-        <v>-2.226736818</v>
+        <v>-0.09766339219853593</v>
       </c>
       <c r="N11">
-        <v>-2.740342432</v>
+        <v>0.07815511282505004</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>-0.910313292</v>
+        <v>-0.5361738494167755</v>
       </c>
       <c r="C12">
-        <v>-1.15848515</v>
+        <v>-0.6022056032123437</v>
       </c>
       <c r="D12">
-        <v>-1.259229058</v>
+        <v>-0.6637684159533999</v>
       </c>
       <c r="E12">
-        <v>-0.805998625</v>
+        <v>-1.281468022930134</v>
       </c>
       <c r="F12">
-        <v>-0.358941927</v>
+        <v>-1.19129956691345</v>
       </c>
       <c r="G12">
-        <v>0.325726794</v>
+        <v>-1.34516325675806</v>
       </c>
       <c r="H12">
-        <v>-0.247567924</v>
+        <v>-1.187533816384802</v>
       </c>
       <c r="I12">
-        <v>-0.9535645699999999</v>
+        <v>-0.9959419183968182</v>
       </c>
       <c r="J12">
-        <v>-0.379365554</v>
+        <v>-1.063001216074302</v>
       </c>
       <c r="K12">
-        <v>-0.669414201</v>
+        <v>-0.2528192450821991</v>
       </c>
       <c r="L12">
-        <v>0.05102243099999999</v>
+        <v>0.03524401388272994</v>
       </c>
       <c r="M12">
-        <v>0.189273845</v>
+        <v>0.05605234895739079</v>
       </c>
       <c r="N12">
-        <v>0.361967262</v>
+        <v>0.3292522083086188</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>-0.91530745</v>
+        <v>-0.5031267873620944</v>
       </c>
       <c r="C13">
-        <v>-0.9979805559999999</v>
+        <v>-0.4125820585901417</v>
       </c>
       <c r="D13">
-        <v>-0.523872417</v>
+        <v>-0.4975811134962422</v>
       </c>
       <c r="E13">
-        <v>-0.976319705</v>
+        <v>-0.5815604153064552</v>
       </c>
       <c r="F13">
-        <v>-0.8952650640000001</v>
+        <v>-0.6835680324312</v>
       </c>
       <c r="G13">
-        <v>-1.324571288</v>
+        <v>-1.205899921065125</v>
       </c>
       <c r="H13">
-        <v>-1.719107671</v>
+        <v>-0.6826016225277307</v>
       </c>
       <c r="I13">
-        <v>-0.550999856</v>
+        <v>-0.2292902732726747</v>
       </c>
       <c r="J13">
-        <v>-0.437918474</v>
+        <v>-0.8948344109368738</v>
       </c>
       <c r="K13">
-        <v>-0.472426078</v>
+        <v>-0.007449831650845497</v>
       </c>
       <c r="L13">
-        <v>-0.404784155</v>
+        <v>0.4038165380176302</v>
       </c>
       <c r="M13">
-        <v>-0.242404456</v>
+        <v>0.5467531448900661</v>
       </c>
       <c r="N13">
-        <v>0.183227009</v>
+        <v>0.519080717140059</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -1024,93 +1029,93 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>-1.112874475</v>
+        <v>-0.7793201447851573</v>
       </c>
       <c r="C14">
-        <v>-1.212975938</v>
+        <v>-0.7641680769041393</v>
       </c>
       <c r="D14">
-        <v>-0.414435147</v>
+        <v>-0.1373161709966192</v>
       </c>
       <c r="E14">
-        <v>-0.9621724429999999</v>
+        <v>-0.5157793548528704</v>
       </c>
       <c r="F14">
-        <v>-0.612117153</v>
+        <v>-0.6002931355539566</v>
       </c>
       <c r="G14">
-        <v>0.329252037</v>
+        <v>-1.67811316486203</v>
       </c>
       <c r="H14">
-        <v>-0.694503537</v>
+        <v>-0.7886626517494122</v>
       </c>
       <c r="I14">
-        <v>-0.9353955390000001</v>
+        <v>-0.05977216767743269</v>
       </c>
       <c r="J14">
-        <v>-0.248126258</v>
+        <v>-0.4360563659777525</v>
       </c>
       <c r="K14">
-        <v>-0.474603065</v>
+        <v>0.1416679478734595</v>
       </c>
       <c r="L14">
-        <v>0.054106829</v>
+        <v>0.05463082821942517</v>
       </c>
       <c r="M14">
-        <v>0.006944341999999999</v>
+        <v>0.1510674308330556</v>
       </c>
       <c r="N14">
-        <v>0.09774738500000001</v>
+        <v>0.3819369017459451</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>0.08650412199999999</v>
+        <v>-0.915313197917203</v>
       </c>
       <c r="C15">
-        <v>0.16076415</v>
+        <v>-0.8002599253251903</v>
       </c>
       <c r="D15">
-        <v>1.287529653</v>
+        <v>-0.4858008915469419</v>
       </c>
       <c r="E15">
-        <v>1.458507674</v>
+        <v>-0.459102613136871</v>
       </c>
       <c r="F15">
-        <v>1.708264452</v>
+        <v>-0.3886572214119309</v>
       </c>
       <c r="G15">
-        <v>1.737302749</v>
+        <v>-1.131570294461621</v>
       </c>
       <c r="H15">
-        <v>1.454654867</v>
+        <v>-0.4310121901661068</v>
       </c>
       <c r="I15">
-        <v>1.685926169</v>
+        <v>0.1352166989295445</v>
       </c>
       <c r="J15">
-        <v>1.198936477</v>
+        <v>0.0321162105799529</v>
       </c>
       <c r="K15">
-        <v>1.009485194</v>
+        <v>0.2689214043482228</v>
       </c>
       <c r="L15">
-        <v>0.6228660539999999</v>
+        <v>0.1719394788427852</v>
       </c>
       <c r="M15">
-        <v>0.391809069</v>
+        <v>0.01614742187502364</v>
       </c>
       <c r="N15">
-        <v>0.180105296</v>
+        <v>0.2079486552789812</v>
       </c>
       <c r="O15">
         <v>2</v>
@@ -1118,378 +1123,143 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B16">
-        <v>0.07741835799999999</v>
+        <v>1.098824281425039</v>
       </c>
       <c r="C16">
-        <v>0.142089174</v>
+        <v>1.124544984094857</v>
       </c>
       <c r="D16">
-        <v>0.175422308</v>
+        <v>1.730050599012491</v>
       </c>
       <c r="E16">
-        <v>-0.429356961</v>
+        <v>1.85323807668174</v>
       </c>
       <c r="F16">
-        <v>-0.596137143</v>
+        <v>2.19314676580624</v>
       </c>
       <c r="G16">
-        <v>0.282600545</v>
+        <v>2.024663755796917</v>
       </c>
       <c r="H16">
-        <v>-0.416819943</v>
+        <v>2.554541131790494</v>
       </c>
       <c r="I16">
-        <v>-0.122727689</v>
+        <v>2.318109608543673</v>
       </c>
       <c r="J16">
-        <v>-0.193826556</v>
+        <v>2.100052046017395</v>
       </c>
       <c r="K16">
-        <v>-0.809834961</v>
+        <v>2.044557233732532</v>
       </c>
       <c r="L16">
-        <v>-2.247024834</v>
+        <v>1.594573606845447</v>
       </c>
       <c r="M16">
-        <v>-2.729378196</v>
+        <v>1.329427998478601</v>
       </c>
       <c r="N16">
-        <v>-2.948248672</v>
+        <v>1.092029141150236</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.085987965</v>
+        <v>-0.898339942</v>
       </c>
       <c r="C17">
-        <v>0.151495311</v>
+        <v>-0.9166695420000001</v>
       </c>
       <c r="D17">
-        <v>-0.616998623</v>
+        <v>-0.124501255</v>
       </c>
       <c r="E17">
-        <v>-1.272875356</v>
+        <v>0.389349156</v>
       </c>
       <c r="F17">
-        <v>-1.098152942</v>
+        <v>1.017939856</v>
       </c>
       <c r="G17">
-        <v>0.252646405</v>
+        <v>1.065573911</v>
       </c>
       <c r="H17">
-        <v>-0.167641881</v>
+        <v>1.109928244</v>
       </c>
       <c r="I17">
-        <v>-0.062751901</v>
+        <v>0.875583775</v>
       </c>
       <c r="J17">
-        <v>-0.101028867</v>
+        <v>0.875780095</v>
       </c>
       <c r="K17">
-        <v>-0.9081892620000001</v>
+        <v>1.330532029</v>
       </c>
       <c r="L17">
-        <v>-2.261685276</v>
+        <v>1.080667858</v>
       </c>
       <c r="M17">
-        <v>-2.885601465</v>
+        <v>0.87872014</v>
       </c>
       <c r="N17">
-        <v>-3.193473878</v>
+        <v>0.4082125</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>-1.213848933</v>
+        <v>1.767476799750954</v>
       </c>
       <c r="C18">
-        <v>-1.260223287</v>
+        <v>1.719572732766139</v>
       </c>
       <c r="D18">
-        <v>-0.238721744</v>
+        <v>0.5124494562617685</v>
       </c>
       <c r="E18">
-        <v>-0.5010421829999999</v>
+        <v>0.2474918796273755</v>
       </c>
       <c r="F18">
-        <v>-0.128168838</v>
+        <v>0.8647481447148373</v>
       </c>
       <c r="G18">
-        <v>0.606900394</v>
+        <v>-0.1068313376663218</v>
       </c>
       <c r="H18">
-        <v>0.248181286</v>
+        <v>0.8351928056353854</v>
       </c>
       <c r="I18">
-        <v>-0.068352202</v>
+        <v>1.399842894027381</v>
       </c>
       <c r="J18">
-        <v>-0.6534519879999999</v>
+        <v>0.6214225679271136</v>
       </c>
       <c r="K18">
-        <v>0.300338616</v>
+        <v>0.4213079031080128</v>
       </c>
       <c r="L18">
-        <v>0.7914288490000001</v>
+        <v>0.6903432757278701</v>
       </c>
       <c r="M18">
-        <v>0.8097702940000001</v>
+        <v>0.5862262624140758</v>
       </c>
       <c r="N18">
-        <v>1.06577869</v>
+        <v>0.5405812696278836</v>
       </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>0.08205686800000001</v>
-      </c>
-      <c r="C19">
-        <v>0.147578526</v>
-      </c>
-      <c r="D19">
-        <v>-0.580912604</v>
-      </c>
-      <c r="E19">
-        <v>-1.665500548</v>
-      </c>
-      <c r="F19">
-        <v>-1.132920207</v>
-      </c>
-      <c r="G19">
-        <v>-0.025191746</v>
-      </c>
-      <c r="H19">
-        <v>-0.426588206</v>
-      </c>
-      <c r="I19">
-        <v>-0.30454745</v>
-      </c>
-      <c r="J19">
-        <v>-0.236008486</v>
-      </c>
-      <c r="K19">
-        <v>-0.6369937170000001</v>
-      </c>
-      <c r="L19">
-        <v>-1.884549688</v>
-      </c>
-      <c r="M19">
-        <v>-2.252556061</v>
-      </c>
-      <c r="N19">
-        <v>-2.76967735</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
-        <v>66</v>
-      </c>
-      <c r="B20">
-        <v>0.080622786</v>
-      </c>
-      <c r="C20">
-        <v>0.154271503</v>
-      </c>
-      <c r="D20">
-        <v>1.052969999</v>
-      </c>
-      <c r="E20">
-        <v>0.517767667</v>
-      </c>
-      <c r="F20">
-        <v>0.752075066</v>
-      </c>
-      <c r="G20">
-        <v>0.9454800720000001</v>
-      </c>
-      <c r="H20">
-        <v>0.065823466</v>
-      </c>
-      <c r="I20">
-        <v>-0.132380308</v>
-      </c>
-      <c r="J20">
-        <v>0.313243192</v>
-      </c>
-      <c r="K20">
-        <v>0.385286684</v>
-      </c>
-      <c r="L20">
-        <v>0.744983141</v>
-      </c>
-      <c r="M20">
-        <v>0.751686429</v>
-      </c>
-      <c r="N20">
-        <v>0.821401707</v>
-      </c>
-      <c r="O20">
         <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>0.086281749</v>
-      </c>
-      <c r="C21">
-        <v>0.160537021</v>
-      </c>
-      <c r="D21">
-        <v>1.113430189</v>
-      </c>
-      <c r="E21">
-        <v>1.043262493</v>
-      </c>
-      <c r="F21">
-        <v>0.794527036</v>
-      </c>
-      <c r="G21">
-        <v>1.480132793</v>
-      </c>
-      <c r="H21">
-        <v>0.437978851</v>
-      </c>
-      <c r="I21">
-        <v>-0.162328318</v>
-      </c>
-      <c r="J21">
-        <v>0.655398369</v>
-      </c>
-      <c r="K21">
-        <v>0.8048442990000001</v>
-      </c>
-      <c r="L21">
-        <v>0.517525266</v>
-      </c>
-      <c r="M21">
-        <v>0.566780771</v>
-      </c>
-      <c r="N21">
-        <v>0.666223055</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>0.08620670699999999</v>
-      </c>
-      <c r="C22">
-        <v>0.159964877</v>
-      </c>
-      <c r="D22">
-        <v>1.061690024</v>
-      </c>
-      <c r="E22">
-        <v>0.320119702</v>
-      </c>
-      <c r="F22">
-        <v>-0.178870902</v>
-      </c>
-      <c r="G22">
-        <v>0.498113457</v>
-      </c>
-      <c r="H22">
-        <v>-0.4399195829999999</v>
-      </c>
-      <c r="I22">
-        <v>-0.636715099</v>
-      </c>
-      <c r="J22">
-        <v>-0.393843089</v>
-      </c>
-      <c r="K22">
-        <v>0.075437195</v>
-      </c>
-      <c r="L22">
-        <v>0.196950875</v>
-      </c>
-      <c r="M22">
-        <v>0.473753626</v>
-      </c>
-      <c r="N22">
-        <v>0.5365080800000001</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>-0.937696286</v>
-      </c>
-      <c r="C23">
-        <v>-1.015591623</v>
-      </c>
-      <c r="D23">
-        <v>-0.608602128</v>
-      </c>
-      <c r="E23">
-        <v>-1.158174718</v>
-      </c>
-      <c r="F23">
-        <v>-0.8048887790000001</v>
-      </c>
-      <c r="G23">
-        <v>-1.24772037</v>
-      </c>
-      <c r="H23">
-        <v>-1.271167965</v>
-      </c>
-      <c r="I23">
-        <v>-0.246935819</v>
-      </c>
-      <c r="J23">
-        <v>-0.041770972</v>
-      </c>
-      <c r="K23">
-        <v>-0.280753298</v>
-      </c>
-      <c r="L23">
-        <v>-0.46378129</v>
-      </c>
-      <c r="M23">
-        <v>-0.296611509</v>
-      </c>
-      <c r="N23">
-        <v>-0.032517665</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
